--- a/WBCTLA/Test.xlsx
+++ b/WBCTLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="656">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,40 +32,442 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>GESU5568791</t>
+    <t>FDCU0361791</t>
+  </si>
+  <si>
+    <t>YM MOBILITY</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7832998</t>
+  </si>
+  <si>
+    <t>SZPV40726503</t>
+  </si>
+  <si>
+    <t>TRLU9731317</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838798</t>
+  </si>
+  <si>
+    <t>HANV08086900</t>
+  </si>
+  <si>
+    <t>TCLU7941594</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838796</t>
+  </si>
+  <si>
+    <t>HANV08085800</t>
+  </si>
+  <si>
+    <t>GESU5705723</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838803</t>
+  </si>
+  <si>
+    <t>HANV08088400</t>
+  </si>
+  <si>
+    <t>NYKU4145871</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838777</t>
+  </si>
+  <si>
+    <t>HANV08081400</t>
+  </si>
+  <si>
+    <t>TCNU5900253</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838800</t>
+  </si>
+  <si>
+    <t>TCLU8445921</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838780</t>
+  </si>
+  <si>
+    <t>HANV08082500</t>
+  </si>
+  <si>
+    <t>NYKU3294736</t>
+  </si>
+  <si>
+    <t>NYK REMUS</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>CHI1154656-CHI7833545</t>
+  </si>
+  <si>
+    <t>ANRV08047700</t>
+  </si>
+  <si>
+    <t>TCLU9695268</t>
   </si>
   <si>
     <t>ONE ARCADIA</t>
   </si>
   <si>
-    <t>0040</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741391</t>
-  </si>
-  <si>
-    <t>TA8DE1033400</t>
-  </si>
-  <si>
-    <t>TCLU3148582</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741401</t>
-  </si>
-  <si>
-    <t>TA8DE1047900</t>
-  </si>
-  <si>
-    <t>TCLU9695268</t>
-  </si>
-  <si>
     <t>CHI1146094-CHI7785526</t>
   </si>
   <si>
     <t>NB8BHB806700</t>
   </si>
   <si>
-    <t>KKTU8232962</t>
+    <t>TCNU5249769</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833013</t>
+  </si>
+  <si>
+    <t>SZPV40726512</t>
+  </si>
+  <si>
+    <t>CAIU4012594</t>
+  </si>
+  <si>
+    <t>CHI1154446-CHI7832839</t>
+  </si>
+  <si>
+    <t>NB8IB9224900</t>
+  </si>
+  <si>
+    <t>KKTU7717151</t>
+  </si>
+  <si>
+    <t>CHI1154446-CHI7832840</t>
+  </si>
+  <si>
+    <t>KKFU7989371</t>
+  </si>
+  <si>
+    <t>CHI1149851-CHI7808535</t>
+  </si>
+  <si>
+    <t>LY8PM1449400</t>
+  </si>
+  <si>
+    <t>TCLU3159437</t>
+  </si>
+  <si>
+    <t>CHI1154656-CHI7833542</t>
+  </si>
+  <si>
+    <t>KKTU7717402</t>
+  </si>
+  <si>
+    <t>CHI1154656-CHI7833543</t>
+  </si>
+  <si>
+    <t>CAXU8227843</t>
+  </si>
+  <si>
+    <t>CHI1155762-CHI7839222</t>
+  </si>
+  <si>
+    <t>FOCV02698400</t>
+  </si>
+  <si>
+    <t>TCNU5602433</t>
+  </si>
+  <si>
+    <t>YM MATURITY</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>CHI1150147-CHI7616958</t>
+  </si>
+  <si>
+    <t>SZPV27197500</t>
+  </si>
+  <si>
+    <t>TCLU3186772</t>
+  </si>
+  <si>
+    <t>NYK RIGEL</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>CHI1155679-CHI7838414</t>
+  </si>
+  <si>
+    <t>LIVV15288800</t>
+  </si>
+  <si>
+    <t>TCLU2771561</t>
+  </si>
+  <si>
+    <t>CHI1154656-CHI7833536</t>
+  </si>
+  <si>
+    <t>NYKU4031333</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833000</t>
+  </si>
+  <si>
+    <t>TCNU2117727</t>
+  </si>
+  <si>
+    <t>CHI1146015-CHI7785545</t>
+  </si>
+  <si>
+    <t>NB8BHB771800</t>
+  </si>
+  <si>
+    <t>SEGU5498636</t>
+  </si>
+  <si>
+    <t>CHI1150086-CHI7810325</t>
+  </si>
+  <si>
+    <t>NB8BID311800</t>
+  </si>
+  <si>
+    <t>KKFU7921772</t>
+  </si>
+  <si>
+    <t>CHI1150088-CHI7810317</t>
+  </si>
+  <si>
+    <t>NB8BID312900</t>
+  </si>
+  <si>
+    <t>TCKU4616757</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838795</t>
+  </si>
+  <si>
+    <t>TGBU5119873</t>
+  </si>
+  <si>
+    <t>CHI1146256-CHI7787321</t>
+  </si>
+  <si>
+    <t>TA8DD7269600</t>
+  </si>
+  <si>
+    <t>TCLU8429601</t>
+  </si>
+  <si>
+    <t>CHI1150074-CHI7810303</t>
+  </si>
+  <si>
+    <t>NB9BS0980400</t>
+  </si>
+  <si>
+    <t>NYKU3551773</t>
+  </si>
+  <si>
+    <t>CHI1159402-CHI7859679</t>
+  </si>
+  <si>
+    <t>NB9IB1095800</t>
+  </si>
+  <si>
+    <t>KKFU7845815</t>
+  </si>
+  <si>
+    <t>CHI1159537-CHI7860437</t>
+  </si>
+  <si>
+    <t>JKTV26923700</t>
+  </si>
+  <si>
+    <t>NYKU5101245</t>
+  </si>
+  <si>
+    <t>CHI1159400-CHI7859677</t>
+  </si>
+  <si>
+    <t>NB8BI9639500</t>
+  </si>
+  <si>
+    <t>BEAU4614133</t>
+  </si>
+  <si>
+    <t>CHI1154482-CHI7832943</t>
+  </si>
+  <si>
+    <t>RTMV09175400</t>
+  </si>
+  <si>
+    <t>TLLU5478679</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7832999</t>
+  </si>
+  <si>
+    <t>TCLU9876060</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833006</t>
+  </si>
+  <si>
+    <t>NYKU4820141</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833009</t>
+  </si>
+  <si>
+    <t>SEGU5874137</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7832990</t>
+  </si>
+  <si>
+    <t>SZPV40726500</t>
+  </si>
+  <si>
+    <t>TCLU8756590</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833014</t>
+  </si>
+  <si>
+    <t>KKFU9159732</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7832992</t>
+  </si>
+  <si>
+    <t>TCKU4208056</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833001</t>
+  </si>
+  <si>
+    <t>TCLU5612223</t>
+  </si>
+  <si>
+    <t>CHI1146138-CHI7785535</t>
+  </si>
+  <si>
+    <t>NB8BHB815700</t>
+  </si>
+  <si>
+    <t>TCLU9667728</t>
+  </si>
+  <si>
+    <t>CHI1150086-CHI7810327</t>
+  </si>
+  <si>
+    <t>NYKU4164233</t>
+  </si>
+  <si>
+    <t>CHI1150088-CHI7810312</t>
+  </si>
+  <si>
+    <t>NYKU5184147</t>
+  </si>
+  <si>
+    <t>CHI1150088-CHI7810313</t>
+  </si>
+  <si>
+    <t>TCLU2340899</t>
+  </si>
+  <si>
+    <t>CHI1154656-CHI7833539</t>
+  </si>
+  <si>
+    <t>MOAU6609570</t>
+  </si>
+  <si>
+    <t>CHI1154656-CHI7833546</t>
+  </si>
+  <si>
+    <t>SEGU5967219</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838792</t>
+  </si>
+  <si>
+    <t>TCLU4224537</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838794</t>
+  </si>
+  <si>
+    <t>DRYU4097139</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838791</t>
+  </si>
+  <si>
+    <t>HANV08084700</t>
+  </si>
+  <si>
+    <t>GESU4824820</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838801</t>
+  </si>
+  <si>
+    <t>HANV08087300</t>
+  </si>
+  <si>
+    <t>NYKU9828818</t>
+  </si>
+  <si>
+    <t>CHI1149851-CHI7808538</t>
+  </si>
+  <si>
+    <t>TA9PT3455800</t>
+  </si>
+  <si>
+    <t>TCNU3901902</t>
+  </si>
+  <si>
+    <t>CHI1155762-CHI7839220</t>
+  </si>
+  <si>
+    <t>FOCV02425601</t>
+  </si>
+  <si>
+    <t>KKFU7814115</t>
+  </si>
+  <si>
+    <t>CHI1155762-CHI7839227</t>
+  </si>
+  <si>
+    <t>HANV07629400</t>
+  </si>
+  <si>
+    <t>TRLU8116340</t>
+  </si>
+  <si>
+    <t>CHI1155762-CHI7839223</t>
+  </si>
+  <si>
+    <t>FOCV02698401</t>
+  </si>
+  <si>
+    <t>ONEU0218489</t>
+  </si>
+  <si>
+    <t>CHI1155764-CHI7839244</t>
+  </si>
+  <si>
+    <t>FOCV02939900</t>
+  </si>
+  <si>
+    <t>TCKU2341748</t>
   </si>
   <si>
     <t>NYK ROMULUS</t>
@@ -74,112 +476,403 @@
     <t>0049</t>
   </si>
   <si>
-    <t>CHI1138652-CHI7738771</t>
-  </si>
-  <si>
-    <t>HAMV29826600</t>
-  </si>
-  <si>
-    <t>NYKU3392687</t>
-  </si>
-  <si>
-    <t>CHI1138613-CHI7738533</t>
-  </si>
-  <si>
-    <t>VNAV01423300</t>
-  </si>
-  <si>
-    <t>ONEU0142402</t>
-  </si>
-  <si>
-    <t>CHI1138675-CHI7738906</t>
-  </si>
-  <si>
-    <t>SAOV05678400</t>
-  </si>
-  <si>
-    <t>KKFU9153673</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741407</t>
-  </si>
-  <si>
-    <t>TA8DE1055800</t>
-  </si>
-  <si>
-    <t>TCNU2117727</t>
-  </si>
-  <si>
-    <t>CHI1146015-CHI7785545</t>
-  </si>
-  <si>
-    <t>NB8BHB771800</t>
-  </si>
-  <si>
-    <t>TGBU5119873</t>
-  </si>
-  <si>
-    <t>CHI1146256-CHI7787321</t>
-  </si>
-  <si>
-    <t>TA8DD7269600</t>
-  </si>
-  <si>
-    <t>TCLU8152435</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741387</t>
-  </si>
-  <si>
-    <t>TA8DE1029900</t>
-  </si>
-  <si>
-    <t>TLLU4372379</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741390</t>
-  </si>
-  <si>
-    <t>TA8DE1032300</t>
-  </si>
-  <si>
-    <t>CAIU5811933</t>
-  </si>
-  <si>
-    <t>CHI1142484-CHI7762731</t>
-  </si>
-  <si>
-    <t>NB8BHB770700</t>
-  </si>
-  <si>
-    <t>TCLU5612223</t>
-  </si>
-  <si>
-    <t>CHI1146138-CHI7785535</t>
-  </si>
-  <si>
-    <t>NB8BHB815700</t>
-  </si>
-  <si>
-    <t>TLLU5695571</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741396</t>
-  </si>
-  <si>
-    <t>TA8DE1042400</t>
-  </si>
-  <si>
-    <t>KKFU8127704</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741402</t>
-  </si>
-  <si>
-    <t>TA8DE1048300</t>
-  </si>
-  <si>
-    <t>KKTU7739567</t>
+    <t>CHI1159370-CHI7859542</t>
+  </si>
+  <si>
+    <t>LIVV15568900</t>
+  </si>
+  <si>
+    <t>TCKU4364341</t>
+  </si>
+  <si>
+    <t>CHI1159428-CHI7859814</t>
+  </si>
+  <si>
+    <t>HAMV24587500</t>
+  </si>
+  <si>
+    <t>TCLU1681735</t>
+  </si>
+  <si>
+    <t>CHI1159427-CHI7859813</t>
+  </si>
+  <si>
+    <t>HAMV23800600</t>
+  </si>
+  <si>
+    <t>TCLU4703000</t>
+  </si>
+  <si>
+    <t>CHI1159430-CHI7859812</t>
+  </si>
+  <si>
+    <t>VNAV01708900</t>
+  </si>
+  <si>
+    <t>MOAU0669720</t>
+  </si>
+  <si>
+    <t>CHI1159429-CHI7859811</t>
+  </si>
+  <si>
+    <t>LIVV16498500</t>
+  </si>
+  <si>
+    <t>BEAU4600464</t>
+  </si>
+  <si>
+    <t>CHI1150163-CHI7810318</t>
+  </si>
+  <si>
+    <t>NB9BC0872400</t>
+  </si>
+  <si>
+    <t>SEGU5926230</t>
+  </si>
+  <si>
+    <t>CHI1150185-CHI7810319</t>
+  </si>
+  <si>
+    <t>SH9FH6107500</t>
+  </si>
+  <si>
+    <t>ONEU0110920</t>
+  </si>
+  <si>
+    <t>CHI1150174-CHI7810304</t>
+  </si>
+  <si>
+    <t>TA9DX0603800</t>
+  </si>
+  <si>
+    <t>TCKU4642930</t>
+  </si>
+  <si>
+    <t>CHI1150163-CHI7810306</t>
+  </si>
+  <si>
+    <t>NB9BC0871300</t>
+  </si>
+  <si>
+    <t>CAIU8789535</t>
+  </si>
+  <si>
+    <t>CHI1159452-CHI7860061</t>
+  </si>
+  <si>
+    <t>TPEV19196700</t>
+  </si>
+  <si>
+    <t>TCNU7480308</t>
+  </si>
+  <si>
+    <t>CHI1159452-CHI7860069</t>
+  </si>
+  <si>
+    <t>KKFU8046259</t>
+  </si>
+  <si>
+    <t>CHI1159452-CHI7860066</t>
+  </si>
+  <si>
+    <t>TEMU8851825</t>
+  </si>
+  <si>
+    <t>CHI1159452-CHI7860070</t>
+  </si>
+  <si>
+    <t>KKFU1512334</t>
+  </si>
+  <si>
+    <t>CHI1159456-CHI7860071</t>
+  </si>
+  <si>
+    <t>TPEV18539700</t>
+  </si>
+  <si>
+    <t>MOFU0642783</t>
+  </si>
+  <si>
+    <t>CHI1159456-CHI7860067</t>
+  </si>
+  <si>
+    <t>TPEV15943300</t>
+  </si>
+  <si>
+    <t>TCLU4701809</t>
+  </si>
+  <si>
+    <t>CHI1159456-CHI7860063</t>
+  </si>
+  <si>
+    <t>TPEV15938700</t>
+  </si>
+  <si>
+    <t>TCLU8393474</t>
+  </si>
+  <si>
+    <t>CHI1159456-CHI7860072</t>
+  </si>
+  <si>
+    <t>TCLU6660606</t>
+  </si>
+  <si>
+    <t>CHI1159461-CHI7860064</t>
+  </si>
+  <si>
+    <t>HKGV51061300</t>
+  </si>
+  <si>
+    <t>ONEU0272330</t>
+  </si>
+  <si>
+    <t>CHI1159461-CHI7860065</t>
+  </si>
+  <si>
+    <t>UETU4096018</t>
+  </si>
+  <si>
+    <t>YM MUTUALITY</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>CHI1159389-CHI7859667</t>
+  </si>
+  <si>
+    <t>SZPUB9608300</t>
+  </si>
+  <si>
+    <t>ONEU0303050</t>
+  </si>
+  <si>
+    <t>CHI1159401-CHI7859678</t>
+  </si>
+  <si>
+    <t>NB8BL7944300</t>
+  </si>
+  <si>
+    <t>ONEU0160730</t>
+  </si>
+  <si>
+    <t>CHI1146145-CHI7785554</t>
+  </si>
+  <si>
+    <t>NB8BHB820300</t>
+  </si>
+  <si>
+    <t>KKFU8135340</t>
+  </si>
+  <si>
+    <t>CHI1146147-CHI7785536</t>
+  </si>
+  <si>
+    <t>NB8BHB821400</t>
+  </si>
+  <si>
+    <t>TGHU6468510</t>
+  </si>
+  <si>
+    <t>CHI1146154-CHI7785557</t>
+  </si>
+  <si>
+    <t>NB8BHB824700</t>
+  </si>
+  <si>
+    <t>CXDU1392592</t>
+  </si>
+  <si>
+    <t>CHI1146156-CHI7785529</t>
+  </si>
+  <si>
+    <t>NB8BHB826900</t>
+  </si>
+  <si>
+    <t>BSIU9861183</t>
+  </si>
+  <si>
+    <t>CHI1146185-CHI7785509</t>
+  </si>
+  <si>
+    <t>NB8BHE203800</t>
+  </si>
+  <si>
+    <t>DRYU4572100</t>
+  </si>
+  <si>
+    <t>CHI1146197-CHI7785508</t>
+  </si>
+  <si>
+    <t>NB8BHE206400</t>
+  </si>
+  <si>
+    <t>SEGU5940028</t>
+  </si>
+  <si>
+    <t>CHI1146200-CHI7785512</t>
+  </si>
+  <si>
+    <t>NB8BHE207500</t>
+  </si>
+  <si>
+    <t>NYKU4767406</t>
+  </si>
+  <si>
+    <t>CHI1146207-CHI7785511</t>
+  </si>
+  <si>
+    <t>NB8BHE209700</t>
+  </si>
+  <si>
+    <t>TGHU6582483</t>
+  </si>
+  <si>
+    <t>CHI1150088-CHI7810326</t>
+  </si>
+  <si>
+    <t>BSIU9796215</t>
+  </si>
+  <si>
+    <t>CHI1155762-CHI7839221</t>
+  </si>
+  <si>
+    <t>FOCV02425602</t>
+  </si>
+  <si>
+    <t>DRYU6084383</t>
+  </si>
+  <si>
+    <t>CHI1155762-CHI7839226</t>
+  </si>
+  <si>
+    <t>HANV07628300</t>
+  </si>
+  <si>
+    <t>TCNU5543217</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833004</t>
+  </si>
+  <si>
+    <t>TCNU4984732</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833012</t>
+  </si>
+  <si>
+    <t>TCNU5688761</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833010</t>
+  </si>
+  <si>
+    <t>TLLU4606498</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833011</t>
+  </si>
+  <si>
+    <t>TEMU8640910</t>
+  </si>
+  <si>
+    <t>CHI1154482-CHI7832947</t>
+  </si>
+  <si>
+    <t>RTMV09199300</t>
+  </si>
+  <si>
+    <t>NYKU0757328</t>
+  </si>
+  <si>
+    <t>CHI1150176-CHI7810301</t>
+  </si>
+  <si>
+    <t>SH9EF1455300</t>
+  </si>
+  <si>
+    <t>KKFU9152980</t>
+  </si>
+  <si>
+    <t>CHI1146165-CHI7785537</t>
+  </si>
+  <si>
+    <t>NB8BHB828400</t>
+  </si>
+  <si>
+    <t>TCLU4261510</t>
+  </si>
+  <si>
+    <t>CHI1150268-CHI7810324</t>
+  </si>
+  <si>
+    <t>TA9PV0362400</t>
+  </si>
+  <si>
+    <t>BEAU4417849</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838788</t>
+  </si>
+  <si>
+    <t>MOFU0610615</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838793</t>
+  </si>
+  <si>
+    <t>TEMU7502515</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838775</t>
+  </si>
+  <si>
+    <t>MOFU6771474</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838786</t>
+  </si>
+  <si>
+    <t>TLLU5704190</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838789</t>
+  </si>
+  <si>
+    <t>TRLU8136454</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838783</t>
+  </si>
+  <si>
+    <t>HANV08083600</t>
+  </si>
+  <si>
+    <t>TCNU8027019</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838771</t>
+  </si>
+  <si>
+    <t>HANV07849800</t>
+  </si>
+  <si>
+    <t>TCLU8939375</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838782</t>
+  </si>
+  <si>
+    <t>KKFU7553393</t>
+  </si>
+  <si>
+    <t>CHI1155762-CHI7839219</t>
+  </si>
+  <si>
+    <t>FOCV02425600</t>
+  </si>
+  <si>
+    <t>NYKU4816748</t>
   </si>
   <si>
     <t>VECCHIO BRIDGE</t>
@@ -188,142 +881,67 @@
     <t>0114</t>
   </si>
   <si>
-    <t>CHI1133852-CHI7704712</t>
-  </si>
-  <si>
-    <t>LIVV13538400</t>
-  </si>
-  <si>
-    <t>CAIU9137819</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741398</t>
-  </si>
-  <si>
-    <t>TA8DE1044600</t>
-  </si>
-  <si>
-    <t>NYKU4636854</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741406</t>
-  </si>
-  <si>
-    <t>TA8DE1054700</t>
-  </si>
-  <si>
-    <t>KKFU8123592</t>
-  </si>
-  <si>
-    <t>YM MATURITY</t>
-  </si>
-  <si>
-    <t>0058</t>
-  </si>
-  <si>
-    <t>CHI1133516-CHI7703883</t>
-  </si>
-  <si>
-    <t>TPEV11698600</t>
-  </si>
-  <si>
-    <t>ONEU0160730</t>
-  </si>
-  <si>
-    <t>CHI1146145-CHI7785554</t>
-  </si>
-  <si>
-    <t>NB8BHB820300</t>
-  </si>
-  <si>
-    <t>KKFU8135340</t>
-  </si>
-  <si>
-    <t>CHI1146147-CHI7785536</t>
-  </si>
-  <si>
-    <t>NB8BHB821400</t>
-  </si>
-  <si>
-    <t>TGHU6468510</t>
-  </si>
-  <si>
-    <t>CHI1146154-CHI7785557</t>
-  </si>
-  <si>
-    <t>NB8BHB824700</t>
-  </si>
-  <si>
-    <t>CXDU1392592</t>
-  </si>
-  <si>
-    <t>CHI1146156-CHI7785529</t>
-  </si>
-  <si>
-    <t>NB8BHB826900</t>
-  </si>
-  <si>
-    <t>BSIU9861183</t>
-  </si>
-  <si>
-    <t>CHI1146185-CHI7785509</t>
-  </si>
-  <si>
-    <t>NB8BHE203800</t>
-  </si>
-  <si>
-    <t>DRYU4572100</t>
-  </si>
-  <si>
-    <t>CHI1146197-CHI7785508</t>
-  </si>
-  <si>
-    <t>NB8BHE206400</t>
-  </si>
-  <si>
-    <t>SEGU5940028</t>
-  </si>
-  <si>
-    <t>CHI1146200-CHI7785512</t>
-  </si>
-  <si>
-    <t>NB8BHE207500</t>
-  </si>
-  <si>
-    <t>NYKU4767406</t>
-  </si>
-  <si>
-    <t>CHI1146207-CHI7785511</t>
-  </si>
-  <si>
-    <t>NB8BHE209700</t>
-  </si>
-  <si>
-    <t>TCNU5796088</t>
-  </si>
-  <si>
-    <t>CHI1138461-CHI7737914</t>
-  </si>
-  <si>
-    <t>SZPV32938400</t>
-  </si>
-  <si>
-    <t>TCNU6003337</t>
-  </si>
-  <si>
-    <t>CHI1142007-CHI7760785</t>
-  </si>
-  <si>
-    <t>LIVV16479400</t>
-  </si>
-  <si>
-    <t>KKFU9152980</t>
-  </si>
-  <si>
-    <t>CHI1146165-CHI7785537</t>
-  </si>
-  <si>
-    <t>NB8BHB828400</t>
+    <t>CHI1154995-CHI7835281</t>
+  </si>
+  <si>
+    <t>RTMV03859700</t>
+  </si>
+  <si>
+    <t>NYKU4341998</t>
+  </si>
+  <si>
+    <t>CHI1155764-CHI7839243</t>
+  </si>
+  <si>
+    <t>FOCV02910500</t>
+  </si>
+  <si>
+    <t>TCNU6098482</t>
+  </si>
+  <si>
+    <t>CHI1150229-CHI7810305</t>
+  </si>
+  <si>
+    <t>SH9AB7971400</t>
+  </si>
+  <si>
+    <t>NYKU3707212</t>
+  </si>
+  <si>
+    <t>CHI1150268-CHI7810323</t>
+  </si>
+  <si>
+    <t>TCLU3417001</t>
+  </si>
+  <si>
+    <t>CHI1150228-CHI7810311</t>
+  </si>
+  <si>
+    <t>CK8LF1112500</t>
+  </si>
+  <si>
+    <t>MOFU6733324</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838785</t>
+  </si>
+  <si>
+    <t>MOFU0711890</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838804</t>
+  </si>
+  <si>
+    <t>TGBU5145580</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838790</t>
+  </si>
+  <si>
+    <t>TLLU5530632</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838787</t>
   </si>
   <si>
     <t>NYKU4739256</t>
@@ -344,13 +962,55 @@
     <t>NB9BH2329800</t>
   </si>
   <si>
-    <t>TCLU8722420</t>
-  </si>
-  <si>
-    <t>CHI1142497-CHI7762732</t>
-  </si>
-  <si>
-    <t>NB8BHB774400</t>
+    <t>TCNU5396862</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838778</t>
+  </si>
+  <si>
+    <t>TRLU7553860</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838772</t>
+  </si>
+  <si>
+    <t>NYKU3663006</t>
+  </si>
+  <si>
+    <t>CHI1154656-CHI7833544</t>
+  </si>
+  <si>
+    <t>KKFU7444725</t>
+  </si>
+  <si>
+    <t>CHI1155762-CHI7839224</t>
+  </si>
+  <si>
+    <t>FOCV02698402</t>
+  </si>
+  <si>
+    <t>CAIU8253368</t>
+  </si>
+  <si>
+    <t>CHI1155762-CHI7839225</t>
+  </si>
+  <si>
+    <t>FOCV02700900</t>
+  </si>
+  <si>
+    <t>TCNU5516865</t>
+  </si>
+  <si>
+    <t>CHI1150088-CHI7810316</t>
+  </si>
+  <si>
+    <t>KKFU9139844</t>
+  </si>
+  <si>
+    <t>CHI1150089-CHI7810310</t>
+  </si>
+  <si>
+    <t>NB8BIJ047400</t>
   </si>
   <si>
     <t>TLLU5457742</t>
@@ -371,13 +1031,31 @@
     <t>NB8BHB809300</t>
   </si>
   <si>
-    <t>NYKU8357863</t>
-  </si>
-  <si>
-    <t>CHI1142197-CHI7761472</t>
-  </si>
-  <si>
-    <t>NB9BC0765500</t>
+    <t>DRYU6029792</t>
+  </si>
+  <si>
+    <t>CHI1159452-CHI7860073</t>
+  </si>
+  <si>
+    <t>TCNU4280651</t>
+  </si>
+  <si>
+    <t>CHI1159452-CHI7860068</t>
+  </si>
+  <si>
+    <t>TCNU7002844</t>
+  </si>
+  <si>
+    <t>CHI1159452-CHI7860062</t>
+  </si>
+  <si>
+    <t>NYKU3113463</t>
+  </si>
+  <si>
+    <t>CHI1159557-CHI7860450</t>
+  </si>
+  <si>
+    <t>TPEV21607400</t>
   </si>
   <si>
     <t>ONEU0046965</t>
@@ -389,6 +1067,66 @@
     <t>TA8DD7269602</t>
   </si>
   <si>
+    <t>FDCU0564000</t>
+  </si>
+  <si>
+    <t>CHI1154482-CHI7832945</t>
+  </si>
+  <si>
+    <t>TCNU6556646</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833005</t>
+  </si>
+  <si>
+    <t>NYKU4216620</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833015</t>
+  </si>
+  <si>
+    <t>ONEU7000919</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7832995</t>
+  </si>
+  <si>
+    <t>KKFU9103409</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7832993</t>
+  </si>
+  <si>
+    <t>DRYU4569071</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833007</t>
+  </si>
+  <si>
+    <t>NYKU3836610</t>
+  </si>
+  <si>
+    <t>CHI1154656-CHI7833541</t>
+  </si>
+  <si>
+    <t>GLDU9389384</t>
+  </si>
+  <si>
+    <t>CHI1154656-CHI7833538</t>
+  </si>
+  <si>
+    <t>TCLU2286822</t>
+  </si>
+  <si>
+    <t>CHI1154656-CHI7833537</t>
+  </si>
+  <si>
+    <t>TCLU9677840</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838802</t>
+  </si>
+  <si>
     <t>NYKU0857456</t>
   </si>
   <si>
@@ -425,6 +1163,15 @@
     <t>NB8BHB818300</t>
   </si>
   <si>
+    <t>NYKU4236009</t>
+  </si>
+  <si>
+    <t>CHI1149851-CHI7808537</t>
+  </si>
+  <si>
+    <t>LY8PM1450300</t>
+  </si>
+  <si>
     <t>NYKU9815425</t>
   </si>
   <si>
@@ -434,40 +1181,31 @@
     <t>RIXV00116600</t>
   </si>
   <si>
-    <t>SEGU1969229</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741388</t>
-  </si>
-  <si>
-    <t>TA8DE1030800</t>
-  </si>
-  <si>
-    <t>TCLU8829260</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741392</t>
-  </si>
-  <si>
-    <t>TA8DE1034500</t>
-  </si>
-  <si>
-    <t>FDCU0593740</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741393</t>
-  </si>
-  <si>
-    <t>TA8DE1039300</t>
-  </si>
-  <si>
-    <t>KKFU9168499</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741397</t>
-  </si>
-  <si>
-    <t>TA8DE1043500</t>
+    <t>TCLU2771371</t>
+  </si>
+  <si>
+    <t>CHI1154656-CHI7833535</t>
+  </si>
+  <si>
+    <t>TCLU6661979</t>
+  </si>
+  <si>
+    <t>CHI1150086-CHI7810332</t>
+  </si>
+  <si>
+    <t>TCLU9291116</t>
+  </si>
+  <si>
+    <t>CHI1150086-CHI7810331</t>
+  </si>
+  <si>
+    <t>TCNU5972947</t>
+  </si>
+  <si>
+    <t>CHI1150096-CHI7810302</t>
+  </si>
+  <si>
+    <t>SH9FV8845500</t>
   </si>
   <si>
     <t>TCNU9637593</t>
@@ -479,40 +1217,73 @@
     <t>NB8BHB810900</t>
   </si>
   <si>
-    <t>DRYU6045176</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741395</t>
-  </si>
-  <si>
-    <t>TA8DE1041300</t>
-  </si>
-  <si>
-    <t>BSIU9858169</t>
-  </si>
-  <si>
-    <t>CHI1138459-CHI7737896</t>
-  </si>
-  <si>
-    <t>TPEV18426900</t>
-  </si>
-  <si>
-    <t>TCNU5903550</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741400</t>
-  </si>
-  <si>
-    <t>TA8DE1046800</t>
-  </si>
-  <si>
-    <t>TCNU5942752</t>
-  </si>
-  <si>
-    <t>CHI1142479-CHI7762729</t>
-  </si>
-  <si>
-    <t>NB8BHB823600</t>
+    <t>KKFU7677603</t>
+  </si>
+  <si>
+    <t>CHI1149851-CHI7808536</t>
+  </si>
+  <si>
+    <t>ONEU0033741</t>
+  </si>
+  <si>
+    <t>CHI1154482-CHI7832942</t>
+  </si>
+  <si>
+    <t>DRYU6071257</t>
+  </si>
+  <si>
+    <t>CHI1154482-CHI7832944</t>
+  </si>
+  <si>
+    <t>RTMV09189900</t>
+  </si>
+  <si>
+    <t>TLLU6036898</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7832996</t>
+  </si>
+  <si>
+    <t>DRYU4570961</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833008</t>
+  </si>
+  <si>
+    <t>DRYU9198219</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833002</t>
+  </si>
+  <si>
+    <t>CAIU9526209</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833003</t>
+  </si>
+  <si>
+    <t>KKFU7714625</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7832997</t>
+  </si>
+  <si>
+    <t>TLLU5653719</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7833016</t>
+  </si>
+  <si>
+    <t>DFSU7806270</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7832994</t>
+  </si>
+  <si>
+    <t>KKFU9103760</t>
+  </si>
+  <si>
+    <t>CHI1154514-CHI7832991</t>
   </si>
   <si>
     <t>SEGU4914410</t>
@@ -524,24 +1295,6 @@
     <t>NB8BHB789300</t>
   </si>
   <si>
-    <t>TCLU9301744</t>
-  </si>
-  <si>
-    <t>CHI1138533-CHI7738065</t>
-  </si>
-  <si>
-    <t>SZPV28835500</t>
-  </si>
-  <si>
-    <t>CLHU4356120</t>
-  </si>
-  <si>
-    <t>CHI1138533-CHI7738064</t>
-  </si>
-  <si>
-    <t>SZPV33422700</t>
-  </si>
-  <si>
     <t>TCLU1571234</t>
   </si>
   <si>
@@ -620,15 +1373,6 @@
     <t>CHI1146256-CHI7787322</t>
   </si>
   <si>
-    <t>TCKU9988016</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741403</t>
-  </si>
-  <si>
-    <t>TA8DE1049400</t>
-  </si>
-  <si>
     <t>CAIU9041384</t>
   </si>
   <si>
@@ -638,12 +1382,6 @@
     <t>NB8BHB800800</t>
   </si>
   <si>
-    <t>MOAU1410965</t>
-  </si>
-  <si>
-    <t>CHI1138613-CHI7738534</t>
-  </si>
-  <si>
     <t>NYKU0803850</t>
   </si>
   <si>
@@ -653,15 +1391,6 @@
     <t>TA8DD7269601</t>
   </si>
   <si>
-    <t>TCNU3088027</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741399</t>
-  </si>
-  <si>
-    <t>TA8DE1045700</t>
-  </si>
-  <si>
     <t>DRYU9515118</t>
   </si>
   <si>
@@ -680,12 +1409,6 @@
     <t>NB8BHB808900</t>
   </si>
   <si>
-    <t>NYKU3547562</t>
-  </si>
-  <si>
-    <t>CHI1138613-CHI7738535</t>
-  </si>
-  <si>
     <t>TCNU4276266</t>
   </si>
   <si>
@@ -731,15 +1454,6 @@
     <t>NB8BHB773300</t>
   </si>
   <si>
-    <t>NYKU3161902</t>
-  </si>
-  <si>
-    <t>CHI1138917-CHI7740778</t>
-  </si>
-  <si>
-    <t>LIVV14086300</t>
-  </si>
-  <si>
     <t>CAIU9463651</t>
   </si>
   <si>
@@ -767,46 +1481,28 @@
     <t>NB8BHB788900</t>
   </si>
   <si>
-    <t>TCKU9988675</t>
-  </si>
-  <si>
-    <t>CHI1142489-CHI7762730</t>
-  </si>
-  <si>
-    <t>NB8BHB775500</t>
-  </si>
-  <si>
-    <t>TCLU8946522</t>
-  </si>
-  <si>
-    <t>CHI1133516-CHI7703882</t>
-  </si>
-  <si>
-    <t>KKFU9140110</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741405</t>
-  </si>
-  <si>
-    <t>TA8DE1051400</t>
-  </si>
-  <si>
-    <t>TRLU7595865</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741389</t>
-  </si>
-  <si>
-    <t>TA8DE1031900</t>
-  </si>
-  <si>
-    <t>TCLU8243068</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741394</t>
-  </si>
-  <si>
-    <t>TA8DE1040900</t>
+    <t>TLLU5575112</t>
+  </si>
+  <si>
+    <t>CHI1150088-CHI7810315</t>
+  </si>
+  <si>
+    <t>KKFU8068704</t>
+  </si>
+  <si>
+    <t>CHI1150088-CHI7810314</t>
+  </si>
+  <si>
+    <t>ONEU7047984</t>
+  </si>
+  <si>
+    <t>CHI1150089-CHI7810308</t>
+  </si>
+  <si>
+    <t>NYKU4626100</t>
+  </si>
+  <si>
+    <t>CHI1150089-CHI7810309</t>
   </si>
   <si>
     <t>MOTU0653400</t>
@@ -845,15 +1541,6 @@
     <t>NB8BHB827300</t>
   </si>
   <si>
-    <t>DFSU7806331</t>
-  </si>
-  <si>
-    <t>CHI1139107-CHI7741404</t>
-  </si>
-  <si>
-    <t>TA8DE1050300</t>
-  </si>
-  <si>
     <t>NYKU4635478</t>
   </si>
   <si>
@@ -872,19 +1559,55 @@
     <t>NB9BH2331800</t>
   </si>
   <si>
-    <t>TEMU6839857</t>
-  </si>
-  <si>
-    <t>CHI1142494-CHI7762733</t>
-  </si>
-  <si>
-    <t>NB8BHB772900</t>
-  </si>
-  <si>
-    <t>NYKU5286869</t>
-  </si>
-  <si>
-    <t>CHI1133516-CHI7703881</t>
+    <t>TCNU5235620</t>
+  </si>
+  <si>
+    <t>CHI1158997-CHI7557803</t>
+  </si>
+  <si>
+    <t>RTMV10848300</t>
+  </si>
+  <si>
+    <t>FSCU4580333</t>
+  </si>
+  <si>
+    <t>CHI1150240-CHI7810352</t>
+  </si>
+  <si>
+    <t>LIVV14653300</t>
+  </si>
+  <si>
+    <t>KKFU1506455</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838779</t>
+  </si>
+  <si>
+    <t>TRLU8665545</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838784</t>
+  </si>
+  <si>
+    <t>TCNU5905255</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838774</t>
+  </si>
+  <si>
+    <t>KKFU7506576</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838776</t>
+  </si>
+  <si>
+    <t>NYKU7150260</t>
+  </si>
+  <si>
+    <t>CHI1149901-CHI7703531</t>
+  </si>
+  <si>
+    <t>HAMV19861400</t>
   </si>
   <si>
     <t>FSCU8650188</t>
@@ -912,6 +1635,351 @@
   </si>
   <si>
     <t>NB8BHB830400</t>
+  </si>
+  <si>
+    <t>TRHU3135328</t>
+  </si>
+  <si>
+    <t>CHI1154656-CHI7833540</t>
+  </si>
+  <si>
+    <t>TRHU2481835</t>
+  </si>
+  <si>
+    <t>CHI1154656-CHI7833534</t>
+  </si>
+  <si>
+    <t>TEMU8830210</t>
+  </si>
+  <si>
+    <t>CHI1150086-CHI7810330</t>
+  </si>
+  <si>
+    <t>TGHU6528435</t>
+  </si>
+  <si>
+    <t>CHI1150086-CHI7810328</t>
+  </si>
+  <si>
+    <t>DFSU6781476</t>
+  </si>
+  <si>
+    <t>CHI1150086-CHI7810329</t>
+  </si>
+  <si>
+    <t>NYKU5806868</t>
+  </si>
+  <si>
+    <t>CHI1150097-CHI7810307</t>
+  </si>
+  <si>
+    <t>NB8BIJ040400</t>
+  </si>
+  <si>
+    <t>MOFU6737459</t>
+  </si>
+  <si>
+    <t>CHI1150163-CHI7810321</t>
+  </si>
+  <si>
+    <t>NB9BC0870900</t>
+  </si>
+  <si>
+    <t>MOFU5898130</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838799</t>
+  </si>
+  <si>
+    <t>DRYU9533934</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838781</t>
+  </si>
+  <si>
+    <t>SEGU4330648</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838797</t>
+  </si>
+  <si>
+    <t>TCNU9851901</t>
+  </si>
+  <si>
+    <t>CHI1155746-CHI7838773</t>
+  </si>
+  <si>
+    <t>TEMU8004224</t>
+  </si>
+  <si>
+    <t>CHI1159485-CHI7860149</t>
+  </si>
+  <si>
+    <t>TPEV17316600</t>
+  </si>
+  <si>
+    <t>TCLU4600280</t>
+  </si>
+  <si>
+    <t>CHI1159488-CHI7860142</t>
+  </si>
+  <si>
+    <t>TPEV16373800</t>
+  </si>
+  <si>
+    <t>SEGU4918333</t>
+  </si>
+  <si>
+    <t>CHI1159552-CHI7860444</t>
+  </si>
+  <si>
+    <t>SZPV38784900</t>
+  </si>
+  <si>
+    <t>TRLU6508932</t>
+  </si>
+  <si>
+    <t>CHI1159557-CHI7860446</t>
+  </si>
+  <si>
+    <t>TPEV21608500</t>
+  </si>
+  <si>
+    <t>TTNU5667226</t>
+  </si>
+  <si>
+    <t>CHI1159557-CHI7860445</t>
+  </si>
+  <si>
+    <t>KKFU7762325</t>
+  </si>
+  <si>
+    <t>CHI1159485-CHI7860146</t>
+  </si>
+  <si>
+    <t>TPEV19486900</t>
+  </si>
+  <si>
+    <t>TCNU4904634</t>
+  </si>
+  <si>
+    <t>CHI1159487-CHI7860145</t>
+  </si>
+  <si>
+    <t>TPEV19818800</t>
+  </si>
+  <si>
+    <t>DRYU9475735</t>
+  </si>
+  <si>
+    <t>CHI1159530-CHI7860440</t>
+  </si>
+  <si>
+    <t>CEBV00367800</t>
+  </si>
+  <si>
+    <t>TLLU5657144</t>
+  </si>
+  <si>
+    <t>CHI1159485-CHI7860144</t>
+  </si>
+  <si>
+    <t>TPEV21390302</t>
+  </si>
+  <si>
+    <t>MOFU5855462</t>
+  </si>
+  <si>
+    <t>CHI1159510-CHI7860382</t>
+  </si>
+  <si>
+    <t>HKGV54779800</t>
+  </si>
+  <si>
+    <t>FDCU0525426</t>
+  </si>
+  <si>
+    <t>CHI1159530-CHI7860435</t>
+  </si>
+  <si>
+    <t>CEBV00407300</t>
+  </si>
+  <si>
+    <t>AKLU6506284</t>
+  </si>
+  <si>
+    <t>CHI1159513-CHI7860385</t>
+  </si>
+  <si>
+    <t>TPEV19810700</t>
+  </si>
+  <si>
+    <t>TCNU4044276</t>
+  </si>
+  <si>
+    <t>CHI1159538-CHI7860449</t>
+  </si>
+  <si>
+    <t>HKGV42431400</t>
+  </si>
+  <si>
+    <t>NYKU8205639</t>
+  </si>
+  <si>
+    <t>CHI1159941-CHI7863548</t>
+  </si>
+  <si>
+    <t>TPEV16952400</t>
+  </si>
+  <si>
+    <t>MOTU5812850</t>
+  </si>
+  <si>
+    <t>CHI1159529-CHI7860442</t>
+  </si>
+  <si>
+    <t>BDOV02441400</t>
+  </si>
+  <si>
+    <t>TCLU6678478</t>
+  </si>
+  <si>
+    <t>CHI1159530-CHI7860441</t>
+  </si>
+  <si>
+    <t>CEBV00376800</t>
+  </si>
+  <si>
+    <t>CAIU9202827</t>
+  </si>
+  <si>
+    <t>CHI1159485-CHI7860143</t>
+  </si>
+  <si>
+    <t>TPEV17314400</t>
+  </si>
+  <si>
+    <t>TCNU4890504</t>
+  </si>
+  <si>
+    <t>CHI1159537-CHI7860439</t>
+  </si>
+  <si>
+    <t>TCLU6681975</t>
+  </si>
+  <si>
+    <t>CHI1159538-CHI7860436</t>
+  </si>
+  <si>
+    <t>GESU5710210</t>
+  </si>
+  <si>
+    <t>CHI1159551-CHI7860448</t>
+  </si>
+  <si>
+    <t>SZPV41841401</t>
+  </si>
+  <si>
+    <t>NYKU4210909</t>
+  </si>
+  <si>
+    <t>CHI1159537-CHI7860438</t>
+  </si>
+  <si>
+    <t>KKFU1772033</t>
+  </si>
+  <si>
+    <t>CHI1159550-CHI7860451</t>
+  </si>
+  <si>
+    <t>KHHV02549500</t>
+  </si>
+  <si>
+    <t>KKFU9144809</t>
+  </si>
+  <si>
+    <t>CHI1159485-CHI7860147</t>
+  </si>
+  <si>
+    <t>TPEV17315500</t>
+  </si>
+  <si>
+    <t>DRYU6023768</t>
+  </si>
+  <si>
+    <t>CHI1159485-CHI7860148</t>
+  </si>
+  <si>
+    <t>TPEV21390300</t>
+  </si>
+  <si>
+    <t>TLLU4068216</t>
+  </si>
+  <si>
+    <t>CHI1159485-CHI7860140</t>
+  </si>
+  <si>
+    <t>TPEV21390301</t>
+  </si>
+  <si>
+    <t>TCLU5997362</t>
+  </si>
+  <si>
+    <t>CHI1159487-CHI7860139</t>
+  </si>
+  <si>
+    <t>TPEV19721800</t>
+  </si>
+  <si>
+    <t>TCLU1799559</t>
+  </si>
+  <si>
+    <t>CHI1159488-CHI7860141</t>
+  </si>
+  <si>
+    <t>BMOU5270660</t>
+  </si>
+  <si>
+    <t>CHI1159551-CHI7860443</t>
+  </si>
+  <si>
+    <t>SZPV41841402</t>
+  </si>
+  <si>
+    <t>GLDU9366250</t>
+  </si>
+  <si>
+    <t>CHI1159511-CHI7860384</t>
+  </si>
+  <si>
+    <t>JKTV27618900</t>
+  </si>
+  <si>
+    <t>TCKU9097443</t>
+  </si>
+  <si>
+    <t>CHI1159512-CHI7860383</t>
+  </si>
+  <si>
+    <t>HKGV46792401</t>
+  </si>
+  <si>
+    <t>TLLU5601654</t>
+  </si>
+  <si>
+    <t>CHI1159551-CHI7860447</t>
+  </si>
+  <si>
+    <t>SZPV41841400</t>
+  </si>
+  <si>
+    <t>TTNU5986619</t>
+  </si>
+  <si>
+    <t>CHI1159631-CHI7861557</t>
+  </si>
+  <si>
+    <t>NB8BHC099500</t>
   </si>
 </sst>
 </file>
@@ -956,7 +2024,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G244"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1041,58 +2109,58 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1101,37 +2169,37 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1167,7 +2235,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1185,7 +2253,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1195,138 +2263,138 @@
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
         <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
         <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
         <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1335,70 +2403,70 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1407,124 +2475,124 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -1533,16 +2601,16 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -1551,16 +2619,16 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -1569,16 +2637,16 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -1587,16 +2655,16 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -1605,16 +2673,16 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1623,16 +2691,16 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1641,124 +2709,124 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1767,16 +2835,16 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1785,16 +2853,16 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1803,16 +2871,16 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1821,52 +2889,52 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1875,16 +2943,16 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1893,16 +2961,16 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1911,178 +2979,178 @@
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="D54" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -2091,16 +3159,16 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -2109,16 +3177,16 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -2127,16 +3195,16 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -2145,34 +3213,34 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
@@ -2181,16 +3249,16 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -2199,16 +3267,16 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -2217,16 +3285,16 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -2235,232 +3303,232 @@
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>207</v>
       </c>
       <c r="D73" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2469,16 +3537,16 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2487,16 +3555,16 @@
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2505,16 +3573,16 @@
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>264</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2523,16 +3591,16 @@
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>267</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2541,16 +3609,16 @@
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>270</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2559,88 +3627,88 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>273</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D90" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -2649,34 +3717,34 @@
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>288</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -2685,16 +3753,16 @@
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -2703,16 +3771,16 @@
         <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>296</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -2721,11 +3789,2639 @@
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="E98"/>
       <c r="F98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>275</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>276</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>278</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>279</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>281</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>282</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>283</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>284</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>286</v>
+      </c>
+      <c r="B103" t="s">
+        <v>287</v>
+      </c>
+      <c r="C103" t="s">
+        <v>288</v>
+      </c>
+      <c r="D103" t="s">
+        <v>289</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>291</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>292</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>294</v>
+      </c>
+      <c r="B105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>295</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>297</v>
+      </c>
+      <c r="B106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>298</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
         <v>299</v>
+      </c>
+      <c r="B107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>300</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>302</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>303</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>304</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>305</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>306</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>307</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>308</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>309</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>310</v>
+      </c>
+      <c r="B112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>311</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>313</v>
+      </c>
+      <c r="B113" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>314</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>316</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>317</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>318</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>319</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>320</v>
+      </c>
+      <c r="B116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" t="s">
+        <v>321</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>322</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>323</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>325</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>326</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>328</v>
+      </c>
+      <c r="B119" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>329</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>330</v>
+      </c>
+      <c r="B120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>331</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>333</v>
+      </c>
+      <c r="B121" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>334</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>336</v>
+      </c>
+      <c r="B122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>337</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>339</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>340</v>
+      </c>
+      <c r="E123"/>
+      <c r="F123" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>341</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>342</v>
+      </c>
+      <c r="E124"/>
+      <c r="F124" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>343</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>344</v>
+      </c>
+      <c r="E125"/>
+      <c r="F125" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>345</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>346</v>
+      </c>
+      <c r="E126"/>
+      <c r="F126" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>348</v>
+      </c>
+      <c r="B127" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>349</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>351</v>
+      </c>
+      <c r="B128" t="s">
+        <v>61</v>
+      </c>
+      <c r="C128" t="s">
+        <v>62</v>
+      </c>
+      <c r="D128" t="s">
+        <v>352</v>
+      </c>
+      <c r="E128"/>
+      <c r="F128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>353</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>354</v>
+      </c>
+      <c r="E129"/>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>355</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>356</v>
+      </c>
+      <c r="E130"/>
+      <c r="F130" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>357</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>358</v>
+      </c>
+      <c r="E131"/>
+      <c r="F131" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>359</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>360</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>361</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>362</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>363</v>
+      </c>
+      <c r="B134" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" t="s">
+        <v>364</v>
+      </c>
+      <c r="E134"/>
+      <c r="F134" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>365</v>
+      </c>
+      <c r="B135" t="s">
+        <v>29</v>
+      </c>
+      <c r="C135" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" t="s">
+        <v>366</v>
+      </c>
+      <c r="E135"/>
+      <c r="F135" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>367</v>
+      </c>
+      <c r="B136" t="s">
+        <v>29</v>
+      </c>
+      <c r="C136" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" t="s">
+        <v>368</v>
+      </c>
+      <c r="E136"/>
+      <c r="F136" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>369</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>370</v>
+      </c>
+      <c r="E137"/>
+      <c r="F137" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>371</v>
+      </c>
+      <c r="B138" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>372</v>
+      </c>
+      <c r="E138"/>
+      <c r="F138" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>374</v>
+      </c>
+      <c r="B139" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>375</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>377</v>
+      </c>
+      <c r="B140" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>378</v>
+      </c>
+      <c r="E140"/>
+      <c r="F140" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>380</v>
+      </c>
+      <c r="B141" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>381</v>
+      </c>
+      <c r="E141"/>
+      <c r="F141" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>383</v>
+      </c>
+      <c r="B142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>384</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>386</v>
+      </c>
+      <c r="B143" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143" t="s">
+        <v>153</v>
+      </c>
+      <c r="D143" t="s">
+        <v>387</v>
+      </c>
+      <c r="E143"/>
+      <c r="F143" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>389</v>
+      </c>
+      <c r="B144" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" t="s">
+        <v>30</v>
+      </c>
+      <c r="D144" t="s">
+        <v>390</v>
+      </c>
+      <c r="E144"/>
+      <c r="F144" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>391</v>
+      </c>
+      <c r="B145" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>392</v>
+      </c>
+      <c r="E145"/>
+      <c r="F145" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>393</v>
+      </c>
+      <c r="B146" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>394</v>
+      </c>
+      <c r="E146"/>
+      <c r="F146" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>395</v>
+      </c>
+      <c r="B147" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>396</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>398</v>
+      </c>
+      <c r="B148" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>399</v>
+      </c>
+      <c r="E148"/>
+      <c r="F148" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>401</v>
+      </c>
+      <c r="B149" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>402</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>403</v>
+      </c>
+      <c r="B150" t="s">
+        <v>61</v>
+      </c>
+      <c r="C150" t="s">
+        <v>62</v>
+      </c>
+      <c r="D150" t="s">
+        <v>404</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>405</v>
+      </c>
+      <c r="B151" t="s">
+        <v>61</v>
+      </c>
+      <c r="C151" t="s">
+        <v>62</v>
+      </c>
+      <c r="D151" t="s">
+        <v>406</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>408</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>409</v>
+      </c>
+      <c r="E152"/>
+      <c r="F152" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>410</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>411</v>
+      </c>
+      <c r="E153"/>
+      <c r="F153" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>412</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>413</v>
+      </c>
+      <c r="E154"/>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>414</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>415</v>
+      </c>
+      <c r="E155"/>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>416</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>417</v>
+      </c>
+      <c r="E156"/>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>418</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>419</v>
+      </c>
+      <c r="E157"/>
+      <c r="F157" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>420</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>421</v>
+      </c>
+      <c r="E158"/>
+      <c r="F158" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>422</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>423</v>
+      </c>
+      <c r="E159"/>
+      <c r="F159" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>424</v>
+      </c>
+      <c r="B160" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>425</v>
+      </c>
+      <c r="E160"/>
+      <c r="F160" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>427</v>
+      </c>
+      <c r="B161" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>428</v>
+      </c>
+      <c r="E161"/>
+      <c r="F161" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>430</v>
+      </c>
+      <c r="B162" t="s">
+        <v>34</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>431</v>
+      </c>
+      <c r="E162"/>
+      <c r="F162" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>433</v>
+      </c>
+      <c r="B163" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>434</v>
+      </c>
+      <c r="E163"/>
+      <c r="F163" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>436</v>
+      </c>
+      <c r="B164" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" t="s">
+        <v>437</v>
+      </c>
+      <c r="E164"/>
+      <c r="F164" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>439</v>
+      </c>
+      <c r="B165" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" t="s">
+        <v>440</v>
+      </c>
+      <c r="E165"/>
+      <c r="F165" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>442</v>
+      </c>
+      <c r="B166" t="s">
+        <v>34</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" t="s">
+        <v>443</v>
+      </c>
+      <c r="E166"/>
+      <c r="F166" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>445</v>
+      </c>
+      <c r="B167" t="s">
+        <v>34</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>446</v>
+      </c>
+      <c r="E167"/>
+      <c r="F167" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>448</v>
+      </c>
+      <c r="B168" t="s">
+        <v>34</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" t="s">
+        <v>449</v>
+      </c>
+      <c r="E168"/>
+      <c r="F168" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>451</v>
+      </c>
+      <c r="B169" t="s">
+        <v>34</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>452</v>
+      </c>
+      <c r="E169"/>
+      <c r="F169" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>453</v>
+      </c>
+      <c r="B170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>454</v>
+      </c>
+      <c r="E170"/>
+      <c r="F170" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>456</v>
+      </c>
+      <c r="B171" t="s">
+        <v>34</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>457</v>
+      </c>
+      <c r="E171"/>
+      <c r="F171" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>459</v>
+      </c>
+      <c r="B172" t="s">
+        <v>34</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>460</v>
+      </c>
+      <c r="E172"/>
+      <c r="F172" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>462</v>
+      </c>
+      <c r="B173" t="s">
+        <v>34</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" t="s">
+        <v>463</v>
+      </c>
+      <c r="E173"/>
+      <c r="F173" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>465</v>
+      </c>
+      <c r="B174" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" t="s">
+        <v>466</v>
+      </c>
+      <c r="E174"/>
+      <c r="F174" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>468</v>
+      </c>
+      <c r="B175" t="s">
+        <v>34</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" t="s">
+        <v>469</v>
+      </c>
+      <c r="E175"/>
+      <c r="F175" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>471</v>
+      </c>
+      <c r="B176" t="s">
+        <v>34</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" t="s">
+        <v>472</v>
+      </c>
+      <c r="E176"/>
+      <c r="F176" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>474</v>
+      </c>
+      <c r="B177" t="s">
+        <v>34</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" t="s">
+        <v>475</v>
+      </c>
+      <c r="E177"/>
+      <c r="F177" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>477</v>
+      </c>
+      <c r="B178" t="s">
+        <v>34</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" t="s">
+        <v>478</v>
+      </c>
+      <c r="E178"/>
+      <c r="F178" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>480</v>
+      </c>
+      <c r="B179" t="s">
+        <v>34</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" t="s">
+        <v>481</v>
+      </c>
+      <c r="E179"/>
+      <c r="F179" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>483</v>
+      </c>
+      <c r="B180" t="s">
+        <v>34</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" t="s">
+        <v>484</v>
+      </c>
+      <c r="E180"/>
+      <c r="F180" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>486</v>
+      </c>
+      <c r="B181" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" t="s">
+        <v>487</v>
+      </c>
+      <c r="E181"/>
+      <c r="F181" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>489</v>
+      </c>
+      <c r="B182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" t="s">
+        <v>490</v>
+      </c>
+      <c r="E182"/>
+      <c r="F182" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>491</v>
+      </c>
+      <c r="B183" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" t="s">
+        <v>492</v>
+      </c>
+      <c r="E183"/>
+      <c r="F183" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>493</v>
+      </c>
+      <c r="B184" t="s">
+        <v>34</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" t="s">
+        <v>494</v>
+      </c>
+      <c r="E184"/>
+      <c r="F184" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>495</v>
+      </c>
+      <c r="B185" t="s">
+        <v>34</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" t="s">
+        <v>496</v>
+      </c>
+      <c r="E185"/>
+      <c r="F185" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>497</v>
+      </c>
+      <c r="B186" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" t="s">
+        <v>498</v>
+      </c>
+      <c r="E186"/>
+      <c r="F186" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>500</v>
+      </c>
+      <c r="B187" t="s">
+        <v>34</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" t="s">
+        <v>501</v>
+      </c>
+      <c r="E187"/>
+      <c r="F187" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>503</v>
+      </c>
+      <c r="B188" t="s">
+        <v>34</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>504</v>
+      </c>
+      <c r="E188"/>
+      <c r="F188" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>506</v>
+      </c>
+      <c r="B189" t="s">
+        <v>34</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" t="s">
+        <v>507</v>
+      </c>
+      <c r="E189"/>
+      <c r="F189" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>509</v>
+      </c>
+      <c r="B190" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" t="s">
+        <v>510</v>
+      </c>
+      <c r="E190"/>
+      <c r="F190" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>512</v>
+      </c>
+      <c r="B191" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>513</v>
+      </c>
+      <c r="E191"/>
+      <c r="F191" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>515</v>
+      </c>
+      <c r="B192" t="s">
+        <v>61</v>
+      </c>
+      <c r="C192" t="s">
+        <v>62</v>
+      </c>
+      <c r="D192" t="s">
+        <v>516</v>
+      </c>
+      <c r="E192"/>
+      <c r="F192" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>518</v>
+      </c>
+      <c r="B193" t="s">
+        <v>152</v>
+      </c>
+      <c r="C193" t="s">
+        <v>153</v>
+      </c>
+      <c r="D193" t="s">
+        <v>519</v>
+      </c>
+      <c r="E193"/>
+      <c r="F193" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>521</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" t="s">
+        <v>522</v>
+      </c>
+      <c r="E194"/>
+      <c r="F194" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>523</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" t="s">
+        <v>524</v>
+      </c>
+      <c r="E195"/>
+      <c r="F195" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>525</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" t="s">
+        <v>526</v>
+      </c>
+      <c r="E196"/>
+      <c r="F196" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>527</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" t="s">
+        <v>528</v>
+      </c>
+      <c r="E197"/>
+      <c r="F197" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>529</v>
+      </c>
+      <c r="B198" t="s">
+        <v>152</v>
+      </c>
+      <c r="C198" t="s">
+        <v>153</v>
+      </c>
+      <c r="D198" t="s">
+        <v>530</v>
+      </c>
+      <c r="E198"/>
+      <c r="F198" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>532</v>
+      </c>
+      <c r="B199" t="s">
+        <v>34</v>
+      </c>
+      <c r="C199" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" t="s">
+        <v>533</v>
+      </c>
+      <c r="E199"/>
+      <c r="F199" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>535</v>
+      </c>
+      <c r="B200" t="s">
+        <v>34</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" t="s">
+        <v>536</v>
+      </c>
+      <c r="E200"/>
+      <c r="F200" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>538</v>
+      </c>
+      <c r="B201" t="s">
+        <v>34</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>539</v>
+      </c>
+      <c r="E201"/>
+      <c r="F201" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>541</v>
+      </c>
+      <c r="B202" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202" t="s">
+        <v>30</v>
+      </c>
+      <c r="D202" t="s">
+        <v>542</v>
+      </c>
+      <c r="E202"/>
+      <c r="F202" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>543</v>
+      </c>
+      <c r="B203" t="s">
+        <v>29</v>
+      </c>
+      <c r="C203" t="s">
+        <v>30</v>
+      </c>
+      <c r="D203" t="s">
+        <v>544</v>
+      </c>
+      <c r="E203"/>
+      <c r="F203" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>545</v>
+      </c>
+      <c r="B204" t="s">
+        <v>34</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" t="s">
+        <v>546</v>
+      </c>
+      <c r="E204"/>
+      <c r="F204" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>547</v>
+      </c>
+      <c r="B205" t="s">
+        <v>34</v>
+      </c>
+      <c r="C205" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" t="s">
+        <v>548</v>
+      </c>
+      <c r="E205"/>
+      <c r="F205" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>549</v>
+      </c>
+      <c r="B206" t="s">
+        <v>34</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" t="s">
+        <v>550</v>
+      </c>
+      <c r="E206"/>
+      <c r="F206" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>551</v>
+      </c>
+      <c r="B207" t="s">
+        <v>34</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" t="s">
+        <v>552</v>
+      </c>
+      <c r="E207"/>
+      <c r="F207" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>554</v>
+      </c>
+      <c r="B208" t="s">
+        <v>34</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" t="s">
+        <v>555</v>
+      </c>
+      <c r="E208"/>
+      <c r="F208" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>557</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" t="s">
+        <v>558</v>
+      </c>
+      <c r="E209"/>
+      <c r="F209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>559</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" t="s">
+        <v>560</v>
+      </c>
+      <c r="E210"/>
+      <c r="F210" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>561</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" t="s">
+        <v>562</v>
+      </c>
+      <c r="E211"/>
+      <c r="F211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>563</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" t="s">
+        <v>564</v>
+      </c>
+      <c r="E212"/>
+      <c r="F212" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>565</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" t="s">
+        <v>566</v>
+      </c>
+      <c r="E213"/>
+      <c r="F213" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>568</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" t="s">
+        <v>569</v>
+      </c>
+      <c r="E214"/>
+      <c r="F214" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>571</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>572</v>
+      </c>
+      <c r="E215"/>
+      <c r="F215" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>574</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>575</v>
+      </c>
+      <c r="E216"/>
+      <c r="F216" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>577</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>578</v>
+      </c>
+      <c r="E217"/>
+      <c r="F217" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>579</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>580</v>
+      </c>
+      <c r="E218"/>
+      <c r="F218" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>582</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" t="s">
+        <v>583</v>
+      </c>
+      <c r="E219"/>
+      <c r="F219" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>585</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" t="s">
+        <v>586</v>
+      </c>
+      <c r="E220"/>
+      <c r="F220" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>588</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" t="s">
+        <v>589</v>
+      </c>
+      <c r="E221"/>
+      <c r="F221" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>591</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" t="s">
+        <v>592</v>
+      </c>
+      <c r="E222"/>
+      <c r="F222" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>594</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" t="s">
+        <v>595</v>
+      </c>
+      <c r="E223"/>
+      <c r="F223" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>597</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" t="s">
+        <v>598</v>
+      </c>
+      <c r="E224"/>
+      <c r="F224" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>600</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" t="s">
+        <v>601</v>
+      </c>
+      <c r="E225"/>
+      <c r="F225" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>603</v>
+      </c>
+      <c r="B226" t="s">
+        <v>56</v>
+      </c>
+      <c r="C226" t="s">
+        <v>57</v>
+      </c>
+      <c r="D226" t="s">
+        <v>604</v>
+      </c>
+      <c r="E226"/>
+      <c r="F226" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>606</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" t="s">
+        <v>607</v>
+      </c>
+      <c r="E227"/>
+      <c r="F227" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>609</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" t="s">
+        <v>610</v>
+      </c>
+      <c r="E228"/>
+      <c r="F228" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>612</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>613</v>
+      </c>
+      <c r="E229"/>
+      <c r="F229" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>615</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" t="s">
+        <v>616</v>
+      </c>
+      <c r="E230"/>
+      <c r="F230" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>617</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" t="s">
+        <v>618</v>
+      </c>
+      <c r="E231"/>
+      <c r="F231" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>619</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" t="s">
+        <v>620</v>
+      </c>
+      <c r="E232"/>
+      <c r="F232" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>622</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" t="s">
+        <v>623</v>
+      </c>
+      <c r="E233"/>
+      <c r="F233" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>624</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" t="s">
+        <v>625</v>
+      </c>
+      <c r="E234"/>
+      <c r="F234" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>627</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" t="s">
+        <v>628</v>
+      </c>
+      <c r="E235"/>
+      <c r="F235" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>630</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" t="s">
+        <v>631</v>
+      </c>
+      <c r="E236"/>
+      <c r="F236" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>633</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" t="s">
+        <v>634</v>
+      </c>
+      <c r="E237"/>
+      <c r="F237" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>636</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" t="s">
+        <v>637</v>
+      </c>
+      <c r="E238"/>
+      <c r="F238" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>639</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" t="s">
+        <v>640</v>
+      </c>
+      <c r="E239"/>
+      <c r="F239" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>641</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" t="s">
+        <v>642</v>
+      </c>
+      <c r="E240"/>
+      <c r="F240" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>644</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" t="s">
+        <v>645</v>
+      </c>
+      <c r="E241"/>
+      <c r="F241" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>647</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" t="s">
+        <v>648</v>
+      </c>
+      <c r="E242"/>
+      <c r="F242" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>650</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" t="s">
+        <v>651</v>
+      </c>
+      <c r="E243"/>
+      <c r="F243" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>653</v>
+      </c>
+      <c r="B244" t="s">
+        <v>34</v>
+      </c>
+      <c r="C244" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" t="s">
+        <v>654</v>
+      </c>
+      <c r="E244"/>
+      <c r="F244" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
